--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Date Given</t>
   </si>
@@ -53,7 +53,7 @@
     <t>First Command Should always give error</t>
   </si>
   <si>
-    <t>IN Process</t>
+    <t>Pending</t>
   </si>
   <si>
     <t>Change the PATH=9000 this will give you error everytime.</t>
@@ -68,10 +68,10 @@
     <t>Create 5GB file and copy it 3 times, but take size only 1 time</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>What happened on September 1752</t>
+  </si>
+  <si>
+    <t>The julian calender is 365.25 days long while the perfect Gregorian calender is precisely 365.24219 days long, which means that when the britishers adopted the gee.. calender they are 13 days ahead of the gee.. calender as such on September 03 1752 the britishers ommit 13 days from thier calender and since now we have these empty 13 days not showing in our system calender</t>
   </si>
   <si>
     <t>Create n number of folders in windows using loop</t>
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,14 +171,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +192,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -200,9 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +217,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,60 +270,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +323,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,6 +401,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,43 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,109 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,24 +514,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,6 +532,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,21 +552,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,8 +574,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,148 +619,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1212,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>43530</v>
       </c>
@@ -1223,13 +1223,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1269,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1286,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1369,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1383,7 +1386,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1400,7 +1403,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1417,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1434,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1451,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Date Given</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>Change the PATH=9000 this will give you error everytime.</t>
-  </si>
-  <si>
     <t>Concept of Recycle bin why it is too fast to delete a file</t>
   </si>
   <si>
@@ -119,6 +116,12 @@
     <t>Find use cases of tuple in real life</t>
   </si>
   <si>
+    <t>Tuples are used for grouping data, Tuple assignment, Act as a return value, Composability of Data Structures</t>
+  </si>
+  <si>
+    <t>http://openbookproject.net/thinkcs/python/english3e/tuples.html</t>
+  </si>
+  <si>
     <t>Application will not start with icons but will start with terminal</t>
   </si>
   <si>
@@ -135,6 +138,27 @@
   </si>
   <si>
     <t>Search hello and then save top 5 URL in a list and then open top 5 url or all the search terms and then again save in a list and finally print that now</t>
+  </si>
+  <si>
+    <t>Connect RedHat with GUI</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Write code in python to connect to SSH without putty</t>
+  </si>
+  <si>
+    <t>How to remove read and write permission from a file or directory for root or admin user</t>
+  </si>
+  <si>
+    <t>List how many people are in a group find that list</t>
+  </si>
+  <si>
+    <t>How to add multiple users in a group at once</t>
+  </si>
+  <si>
+    <t>You can use programming language to do this.</t>
   </si>
   <si>
     <t>Questions</t>
@@ -148,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -171,14 +195,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +231,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,10 +276,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +291,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -238,81 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,13 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,169 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +538,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,15 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,15 +594,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,20 +623,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,130 +661,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1158,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>43530</v>
       </c>
@@ -1173,9 +1197,6 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1186,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1195,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1206,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1223,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1232,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1243,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -1252,10 +1273,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1266,10 +1287,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1283,10 +1304,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1300,16 +1321,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1320,16 +1341,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1340,22 +1361,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>43561</v>
       </c>
@@ -1363,13 +1384,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
+      <c r="G13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1380,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1397,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1414,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1431,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1448,18 +1475,107 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>43622</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" display="https://wiki.videolan.org/Documentation:Installing_VLC/" tooltip="https://wiki.videolan.org/Documentation:Installing_VLC/"/>
+    <hyperlink ref="G13" r:id="rId2" display="http://openbookproject.net/thinkcs/python/english3e/tuples.html" tooltip="http://openbookproject.net/thinkcs/python/english3e/tuples.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1479,10 +1595,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Date Given</t>
   </si>
@@ -173,9 +173,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,21 +195,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +231,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,99 +337,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,55 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,127 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +583,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,28 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,130 +661,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1570,6 +1570,20 @@
       </c>
       <c r="F23" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>43652</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Date Given</t>
   </si>
@@ -86,9 +86,15 @@
     <t>Python</t>
   </si>
   <si>
+    <t>use id() function to get the RAM Page location</t>
+  </si>
+  <si>
     <t>Create 500 variables and check its memory with comparison to null and a value</t>
   </si>
   <si>
+    <t>memoryprofiler.py</t>
+  </si>
+  <si>
     <t>Display history with time</t>
   </si>
   <si>
@@ -125,18 +131,24 @@
     <t>Application will not start with icons but will start with terminal</t>
   </si>
   <si>
+    <t>Edit the app icon code and modify the address of the execution file</t>
+  </si>
+  <si>
     <t>How to write hello World in a directory</t>
   </si>
   <si>
-    <t>IO Redirection</t>
-  </si>
-  <si>
     <t>No of lines word characters count in python</t>
   </si>
   <si>
+    <t>linewordcharcount.py</t>
+  </si>
+  <si>
     <t>Count no of lines word character without saving data in a file</t>
   </si>
   <si>
+    <t>countinruntime.py</t>
+  </si>
+  <si>
     <t>Search hello and then save top 5 URL in a list and then open top 5 url or all the search terms and then again save in a list and finally print that now</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
     <t>AWS</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=6x_okhl_CF4</t>
+  </si>
+  <si>
     <t>Write code in python to connect to SSH without putty</t>
   </si>
   <si>
@@ -155,10 +170,19 @@
     <t>List how many people are in a group find that list</t>
   </si>
   <si>
+    <t>https://www.cyberciti.biz/faq/linux-list-all-members-of-a-group/</t>
+  </si>
+  <si>
     <t>How to add multiple users in a group at once</t>
   </si>
   <si>
-    <t>You can use programming language to do this.</t>
+    <t>addmultiusersingroup.py</t>
+  </si>
+  <si>
+    <t>Copy all RAM data to Secondary Storage and use that data</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
   <si>
     <t>Questions</t>
@@ -173,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,21 +219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -253,6 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -262,7 +273,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,17 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,44 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,187 +371,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,11 +598,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +645,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -608,42 +662,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,130 +685,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1221,7 +1245,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>43530</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1279,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>43530</v>
       </c>
@@ -1295,8 +1319,11 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>43530</v>
       </c>
@@ -1304,13 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1321,16 +1351,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1341,16 +1371,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1361,19 +1391,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1384,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1393,13 +1423,13 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>43591</v>
       </c>
@@ -1407,13 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1424,16 +1457,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>43591</v>
       </c>
@@ -1441,16 +1474,19 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>43591</v>
       </c>
@@ -1458,13 +1494,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1475,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -1484,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>43622</v>
       </c>
@@ -1492,13 +1531,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1509,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1526,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1535,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>43652</v>
       </c>
@@ -1543,13 +1585,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1560,27 +1605,30 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>43652</v>
+        <v>43683</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
@@ -1590,6 +1638,8 @@
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" display="https://wiki.videolan.org/Documentation:Installing_VLC/" tooltip="https://wiki.videolan.org/Documentation:Installing_VLC/"/>
     <hyperlink ref="G13" r:id="rId2" display="http://openbookproject.net/thinkcs/python/english3e/tuples.html" tooltip="http://openbookproject.net/thinkcs/python/english3e/tuples.html"/>
+    <hyperlink ref="F22" r:id="rId3" display="https://www.cyberciti.biz/faq/linux-list-all-members-of-a-group/" tooltip="https://www.cyberciti.biz/faq/linux-list-all-members-of-a-group/"/>
+    <hyperlink ref="F19" r:id="rId4" display="https://www.youtube.com/watch?v=6x_okhl_CF4" tooltip="https://www.youtube.com/watch?v=6x_okhl_CF4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1609,10 +1659,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>Date Given</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>Find number of users connected in your wifi networks and show thier IP and MAC</t>
+  </si>
+  <si>
+    <t>Write a code that will create 100 files and 200 directories</t>
+  </si>
+  <si>
+    <t>write a program to list number of users present in linux based os</t>
+  </si>
+  <si>
+    <t>Take 10 commands randomally from a user and check it of it is present then run it otherwise give voice based error message</t>
   </si>
   <si>
     <t>Questions</t>
@@ -196,10 +208,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,7 +231,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +247,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +267,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -264,21 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -294,73 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,49 +383,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,54 +539,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,73 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +574,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,19 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,15 +679,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,130 +697,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1631,6 +1643,74 @@
         <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1659,10 +1739,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Date Given</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Take 10 commands randomally from a user and check it of it is present then run it otherwise give voice based error message</t>
+  </si>
+  <si>
+    <t>Build a Qr code reader in python to scan the value and print it</t>
   </si>
   <si>
     <t>Questions</t>
@@ -208,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -246,14 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -283,7 +279,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,47 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,19 +386,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +482,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,139 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,15 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,6 +611,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,21 +664,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -665,29 +677,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,130 +700,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1711,6 +1714,23 @@
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1739,10 +1759,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -234,7 +234,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +287,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +337,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,74 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,25 +386,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,72 +554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,79 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,35 +619,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +641,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,15 +682,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,130 +700,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -240,6 +240,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -247,135 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +630,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -653,44 +677,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,130 +700,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,8 +1164,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
